--- a/Analisi Iniziale/ProdutBacklog.xlsx
+++ b/Analisi Iniziale/ProdutBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\Desktop\Universita\Magistrale\1 Anno\2 Ciclo\Ingegneria Sistemi Software\TEMA_FINALE\SCRUM\1.Requisiti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ISS_TemaFinale\iss2019TemaFinale\Analisi Iniziale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE18546-4F48-4C75-88E1-102871F95558}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C421FD60-23D9-4CD6-9037-0F1E9701A9BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="60">
   <si>
     <t>Tag</t>
   </si>
@@ -36,90 +36,18 @@
     <t>Priorità</t>
   </si>
   <si>
-    <t>CALIBRATION</t>
-  </si>
-  <si>
-    <t>MOVEMENT</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter ricevere comandi per il movimento</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter calcolare le dimensioni sulla stanza</t>
-  </si>
-  <si>
     <t>AVOID</t>
   </si>
   <si>
-    <t>PLANNING</t>
-  </si>
-  <si>
-    <t>Come Maitre devo conoscere lo stato della stanza</t>
-  </si>
-  <si>
-    <t>Come Maitre devo poter interrompere l'attività del RBR</t>
-  </si>
-  <si>
-    <t>Come Maitre devo poter riattivare l'attività del RBR</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter evitare gli ostacoli presenti nella stanza</t>
-  </si>
-  <si>
     <t>Come RBR devo poter raggiungere una posizione specifica della stanza</t>
   </si>
   <si>
-    <t>Come RBR devo poter prendere un elemento dal fridge</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter aggiungere un elemento al tavolo</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter togliere un elemento dal tavolo</t>
-  </si>
-  <si>
-    <t>Come Fridge devo permettere la rimozione di un elemento</t>
-  </si>
-  <si>
-    <t>Come Fridge devo mantenere le informazioni relative agli elementi presenti</t>
-  </si>
-  <si>
-    <t>Come Fridge devo permettere l'aggiunta di un elemento, l'elemento deve avere un food-code</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter notificare al maitre situazioni di allarme</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter notificare al maitre il completamento di un'operazione</t>
-  </si>
-  <si>
-    <t>Come Fridge devo poter rispondere a domande sugli elementi disponibili</t>
-  </si>
-  <si>
     <t>Come Fridge devo esporre un'interfaccia CoAP</t>
   </si>
   <si>
-    <t>Come RBR devo poter inserire un elemento nella dishwasher</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter interrompere l'attività corrente a seguito di un comando stop</t>
-  </si>
-  <si>
-    <t>Come RBR devo poter riprendere un'attività interrotta a seguito di un comando reactivate</t>
-  </si>
-  <si>
-    <t>Come BRB devo poter sapere se un certo elemento è presente nel fridge</t>
-  </si>
-  <si>
     <t>TAKE_F</t>
   </si>
   <si>
-    <t>ADD_T</t>
-  </si>
-  <si>
-    <t>REMOVE_T</t>
-  </si>
-  <si>
     <t>PUT_D</t>
   </si>
   <si>
@@ -135,52 +63,148 @@
     <t>NOTIFY</t>
   </si>
   <si>
-    <t>QUERY</t>
-  </si>
-  <si>
-    <t>KNOW_STATE</t>
-  </si>
-  <si>
-    <t>STOP (?)</t>
-  </si>
-  <si>
-    <t>REACTIVATE (?)</t>
-  </si>
-  <si>
-    <t>Come Maitre devo poter dare i comandi clear</t>
-  </si>
-  <si>
-    <t>Come Maitre devo poter dare i comandi addFood</t>
-  </si>
-  <si>
-    <t>Come Maitre devo poter dare i comandi prepare</t>
-  </si>
-  <si>
-    <t>PREPARE</t>
-  </si>
-  <si>
-    <t>CLEAR</t>
-  </si>
-  <si>
-    <t>ADD_FOOD</t>
-  </si>
-  <si>
-    <t>ADD_F (?)</t>
-  </si>
-  <si>
-    <t>REMOVE_F (?)</t>
-  </si>
-  <si>
     <t>Tag uguali per requisiti diversi ma simmetrici</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>EXPOSE</t>
-  </si>
-  <si>
     <t>ANSWER</t>
+  </si>
+  <si>
+    <t>Come RBR devo essere in grado di ricevere messaggi per il movimento</t>
+  </si>
+  <si>
+    <t>Come RBR devo essere in grado di calcolare le dimensioni della stanza</t>
+  </si>
+  <si>
+    <t>Come RBR devo conoscere le posizioni degli oggetti nella stanza</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter riconoscere ed evitare gli ostacoli</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter accettare i comandi preapare,clear,add_food dal maitre</t>
+  </si>
+  <si>
+    <t>Come sistema devo memorizzare la lista degli oggetti da mettere sul tavolo</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter notificare il completamento di un'attività</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter notificare con un allarme la mancanza del cibo richiesto</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter richiedere informazioni sul contenuto del fridge</t>
+  </si>
+  <si>
+    <t>Come RBR devo essere in grado di interrompere un'attività</t>
+  </si>
+  <si>
+    <t>Come RBR devo essere in grado di riprendere un'attività interrotta</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter inserire un elemento sul table</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter prendere un elemento dal table</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter inserire un piatto nella dishwasher</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter prendere un cibo dal fridge</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter inserire un cibo nel fridge</t>
+  </si>
+  <si>
+    <t>Come RBR devo poter prendere un piatto dalla pantry</t>
+  </si>
+  <si>
+    <t>Come Maitre devo poter conoscere cosa è presente sul tavolo,nella dishwasher,nella pantry</t>
+  </si>
+  <si>
+    <t>Come Maitre devo poter reagire alle notify e le alert del RBR</t>
+  </si>
+  <si>
+    <t>Come Maitre devo poter conoscere il contenuto del fridge</t>
+  </si>
+  <si>
+    <t>Come Maitre voglio accedere alle funzioni tramite smartphone (frontend)</t>
+  </si>
+  <si>
+    <t>Come Fridge devo poter esporre il contenuto</t>
+  </si>
+  <si>
+    <t>Come Fridge devo poter rispondere a domande sul contenuto</t>
+  </si>
+  <si>
+    <t>Come Maitre devo poter inviare i comandi prepare, clear, add_food (con food_code)</t>
+  </si>
+  <si>
+    <t>Come Fridge devo permettere l'inserimento di nuovo cibo</t>
+  </si>
+  <si>
+    <t>Come Fridge devo permettere la rimozione di un cibo</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
+  <si>
+    <t>CALIBRATE</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>REACH</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>INITIAL_SET</t>
+  </si>
+  <si>
+    <t>REQUEST_F</t>
+  </si>
+  <si>
+    <t>STOP_R</t>
+  </si>
+  <si>
+    <t>REACTIVATE_R</t>
+  </si>
+  <si>
+    <t>TAKE_T</t>
+  </si>
+  <si>
+    <t>TAKE_P</t>
+  </si>
+  <si>
+    <t>PUT_F</t>
+  </si>
+  <si>
+    <t>PUT_T</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>Come Maitre devo poter inviare stop al RBR</t>
+  </si>
+  <si>
+    <t>Come Maitre devo poter inviare reactivate al RBR</t>
+  </si>
+  <si>
+    <t>REACT</t>
+  </si>
+  <si>
+    <t>STATE_ROOM</t>
+  </si>
+  <si>
+    <t>STATE_FRIDGE</t>
+  </si>
+  <si>
+    <t>EXHIBIT</t>
   </si>
 </sst>
 </file>
@@ -196,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +236,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,12 +269,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -519,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F29"/>
+  <dimension ref="A3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,275 +576,246 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
